--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H2">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I2">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J2">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>9.141366318762836</v>
+        <v>13.545386711454</v>
       </c>
       <c r="R2">
-        <v>9.141366318762836</v>
+        <v>121.908480403086</v>
       </c>
       <c r="S2">
-        <v>6.27763942707599E-05</v>
+        <v>8.754835395288181E-05</v>
       </c>
       <c r="T2">
-        <v>6.27763942707599E-05</v>
+        <v>8.754835395288182E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H3">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I3">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J3">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>811.1616474842072</v>
+        <v>1107.727495302769</v>
       </c>
       <c r="R3">
-        <v>811.1616474842072</v>
+        <v>9969.547457724921</v>
       </c>
       <c r="S3">
-        <v>0.005570480563203088</v>
+        <v>0.007159612413287532</v>
       </c>
       <c r="T3">
-        <v>0.005570480563203088</v>
+        <v>0.007159612413287532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H4">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I4">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J4">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>692.58773365698</v>
+        <v>1028.496330685581</v>
       </c>
       <c r="R4">
-        <v>692.58773365698</v>
+        <v>9256.466976170232</v>
       </c>
       <c r="S4">
-        <v>0.004756199360034707</v>
+        <v>0.006647514959610626</v>
       </c>
       <c r="T4">
-        <v>0.004756199360034707</v>
+        <v>0.006647514959610626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H5">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I5">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J5">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>711.3782658250467</v>
+        <v>973.5293137180693</v>
       </c>
       <c r="R5">
-        <v>711.3782658250467</v>
+        <v>8761.763823462625</v>
       </c>
       <c r="S5">
-        <v>0.004885239354145739</v>
+        <v>0.006292244788317802</v>
       </c>
       <c r="T5">
-        <v>0.004885239354145739</v>
+        <v>0.006292244788317802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H6">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I6">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J6">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>299.9359395221601</v>
+        <v>414.9962560732878</v>
       </c>
       <c r="R6">
-        <v>299.9359395221601</v>
+        <v>3734.96630465959</v>
       </c>
       <c r="S6">
-        <v>0.002059746446958069</v>
+        <v>0.002682259273196119</v>
       </c>
       <c r="T6">
-        <v>0.002059746446958069</v>
+        <v>0.002682259273196119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.69494024455875</v>
+        <v>7.744420666666667</v>
       </c>
       <c r="H7">
-        <v>5.69494024455875</v>
+        <v>23.233262</v>
       </c>
       <c r="I7">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="J7">
-        <v>0.01818250298747938</v>
+        <v>0.02402057549124297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>123.4928376020572</v>
+        <v>178.1426988539698</v>
       </c>
       <c r="R7">
-        <v>123.4928376020572</v>
+        <v>1603.284289685728</v>
       </c>
       <c r="S7">
-        <v>0.0008480608688670136</v>
+        <v>0.001151395702878006</v>
       </c>
       <c r="T7">
-        <v>0.0008480608688670136</v>
+        <v>0.001151395702878006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>212.848688053281</v>
+        <v>215.379898</v>
       </c>
       <c r="H8">
-        <v>212.848688053281</v>
+        <v>646.139694</v>
       </c>
       <c r="I8">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J8">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>341.6590419578455</v>
+        <v>376.7104259767981</v>
       </c>
       <c r="R8">
-        <v>341.6590419578455</v>
+        <v>3390.393833791182</v>
       </c>
       <c r="S8">
-        <v>0.002346271003284609</v>
+        <v>0.002434805178597768</v>
       </c>
       <c r="T8">
-        <v>0.002346271003284609</v>
+        <v>0.002434805178597768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>212.848688053281</v>
+        <v>215.379898</v>
       </c>
       <c r="H9">
-        <v>212.848688053281</v>
+        <v>646.139694</v>
       </c>
       <c r="I9">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J9">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>30317.20879444082</v>
+        <v>30806.9828873069</v>
       </c>
       <c r="R9">
-        <v>30317.20879444082</v>
+        <v>277262.845985762</v>
       </c>
       <c r="S9">
-        <v>0.2081970009846778</v>
+        <v>0.1991158096474015</v>
       </c>
       <c r="T9">
-        <v>0.2081970009846778</v>
+        <v>0.1991158096474015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>212.848688053281</v>
+        <v>215.379898</v>
       </c>
       <c r="H10">
-        <v>212.848688053281</v>
+        <v>646.139694</v>
       </c>
       <c r="I10">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J10">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>25885.50259355801</v>
+        <v>28603.48686246917</v>
       </c>
       <c r="R10">
-        <v>25885.50259355801</v>
+        <v>257431.3817622226</v>
       </c>
       <c r="S10">
-        <v>0.1777631986341729</v>
+        <v>0.1848738796068857</v>
       </c>
       <c r="T10">
-        <v>0.1777631986341729</v>
+        <v>0.1848738796068857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>212.848688053281</v>
+        <v>215.379898</v>
       </c>
       <c r="H11">
-        <v>212.848688053281</v>
+        <v>646.139694</v>
       </c>
       <c r="I11">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J11">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>26587.79971135786</v>
+        <v>27074.80046778723</v>
       </c>
       <c r="R11">
-        <v>26587.79971135786</v>
+        <v>243673.2042100851</v>
       </c>
       <c r="S11">
-        <v>0.1825860751304063</v>
+        <v>0.174993469367184</v>
       </c>
       <c r="T11">
-        <v>0.1825860751304063</v>
+        <v>0.174993469367184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>212.848688053281</v>
+        <v>215.379898</v>
       </c>
       <c r="H12">
-        <v>212.848688053281</v>
+        <v>646.139694</v>
       </c>
       <c r="I12">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J12">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>11210.12135084597</v>
+        <v>11541.45095554554</v>
       </c>
       <c r="R12">
-        <v>11210.12135084597</v>
+        <v>103873.0585999098</v>
       </c>
       <c r="S12">
-        <v>0.07698313066169861</v>
+        <v>0.07459624851695826</v>
       </c>
       <c r="T12">
-        <v>0.07698313066169861</v>
+        <v>0.07459624851695826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>212.848688053281</v>
+        <v>215.379898</v>
       </c>
       <c r="H13">
-        <v>212.848688053281</v>
+        <v>646.139694</v>
       </c>
       <c r="I13">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="J13">
-        <v>0.6795719955284113</v>
+        <v>0.6680356506811497</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>4615.551232989516</v>
+        <v>4954.32233862977</v>
       </c>
       <c r="R13">
-        <v>4615.551232989516</v>
+        <v>44588.90104766793</v>
       </c>
       <c r="S13">
-        <v>0.03169631911417104</v>
+        <v>0.0320214383641225</v>
       </c>
       <c r="T13">
-        <v>0.03169631911417104</v>
+        <v>0.03202143836412251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.04466396637793</v>
+        <v>0.3580746666666667</v>
       </c>
       <c r="H14">
-        <v>1.04466396637793</v>
+        <v>1.074224</v>
       </c>
       <c r="I14">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="J14">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>1.676866760067703</v>
+        <v>0.6262908538080002</v>
       </c>
       <c r="R14">
-        <v>1.676866760067703</v>
+        <v>5.636617684272001</v>
       </c>
       <c r="S14">
-        <v>1.151552680407063E-05</v>
+        <v>4.047926760206144E-06</v>
       </c>
       <c r="T14">
-        <v>1.151552680407063E-05</v>
+        <v>4.047926760206144E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.04466396637793</v>
+        <v>0.3580746666666667</v>
       </c>
       <c r="H15">
-        <v>1.04466396637793</v>
+        <v>1.074224</v>
       </c>
       <c r="I15">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="J15">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>148.797231866331</v>
+        <v>51.21740808131557</v>
       </c>
       <c r="R15">
-        <v>148.797231866331</v>
+        <v>460.9566727318401</v>
       </c>
       <c r="S15">
-        <v>0.001021833429305418</v>
+        <v>0.0003310351979438525</v>
       </c>
       <c r="T15">
-        <v>0.001021833429305418</v>
+        <v>0.0003310351979438525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.04466396637793</v>
+        <v>0.3580746666666667</v>
       </c>
       <c r="H16">
-        <v>1.04466396637793</v>
+        <v>1.074224</v>
       </c>
       <c r="I16">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="J16">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>127.046363585306</v>
+        <v>47.55403878862934</v>
       </c>
       <c r="R16">
-        <v>127.046363585306</v>
+        <v>427.9863490976641</v>
       </c>
       <c r="S16">
-        <v>0.0008724639548387403</v>
+        <v>0.0003073576198629691</v>
       </c>
       <c r="T16">
-        <v>0.0008724639548387403</v>
+        <v>0.0003073576198629691</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.04466396637793</v>
+        <v>0.3580746666666667</v>
       </c>
       <c r="H17">
-        <v>1.04466396637793</v>
+        <v>1.074224</v>
       </c>
       <c r="I17">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="J17">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>130.493246436061</v>
+        <v>45.01255800840534</v>
       </c>
       <c r="R17">
-        <v>130.493246436061</v>
+        <v>405.113022075648</v>
       </c>
       <c r="S17">
-        <v>0.0008961346917175362</v>
+        <v>0.0002909311815743266</v>
       </c>
       <c r="T17">
-        <v>0.0008961346917175362</v>
+        <v>0.0002909311815743266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.04466396637793</v>
+        <v>0.3580746666666667</v>
       </c>
       <c r="H18">
-        <v>1.04466396637793</v>
+        <v>1.074224</v>
       </c>
       <c r="I18">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="J18">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>55.01941280944697</v>
+        <v>19.18796156063111</v>
       </c>
       <c r="R18">
-        <v>55.01941280944697</v>
+        <v>172.69165404568</v>
       </c>
       <c r="S18">
-        <v>0.0003778341476133935</v>
+        <v>0.000124018197939223</v>
       </c>
       <c r="T18">
-        <v>0.0003778341476133935</v>
+        <v>0.000124018197939223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.04466396637793</v>
+        <v>0.3580746666666667</v>
       </c>
       <c r="H19">
-        <v>1.04466396637793</v>
+        <v>1.074224</v>
       </c>
       <c r="I19">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="J19">
-        <v>0.003335347672475972</v>
+        <v>0.001110626595891054</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>22.65318194899275</v>
+        <v>8.236689386695112</v>
       </c>
       <c r="R19">
-        <v>22.65318194899275</v>
+        <v>74.13020448025601</v>
       </c>
       <c r="S19">
-        <v>0.0001555659221968134</v>
+        <v>5.323647181047684E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001555659221968134</v>
+        <v>5.323647181047686E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.62162435069131</v>
+        <v>1.066806333333333</v>
       </c>
       <c r="H20">
-        <v>93.62162435069131</v>
+        <v>3.200419</v>
       </c>
       <c r="I20">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="J20">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>150.2789365287865</v>
+        <v>1.865898684123</v>
       </c>
       <c r="R20">
-        <v>150.2789365287865</v>
+        <v>16.793088157107</v>
       </c>
       <c r="S20">
-        <v>0.001032008721798862</v>
+        <v>1.205992578267865E-05</v>
       </c>
       <c r="T20">
-        <v>0.001032008721798862</v>
+        <v>1.205992578267865E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.62162435069131</v>
+        <v>1.066806333333333</v>
       </c>
       <c r="H21">
-        <v>93.62162435069131</v>
+        <v>3.200419</v>
       </c>
       <c r="I21">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="J21">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>13335.04264965969</v>
+        <v>152.5912341878378</v>
       </c>
       <c r="R21">
-        <v>13335.04264965969</v>
+        <v>1373.32110769054</v>
       </c>
       <c r="S21">
-        <v>0.09157557697630148</v>
+        <v>0.0009862480610824803</v>
       </c>
       <c r="T21">
-        <v>0.09157557697630148</v>
+        <v>0.0009862480610824803</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>93.62162435069131</v>
+        <v>1.066806333333333</v>
       </c>
       <c r="H22">
-        <v>93.62162435069131</v>
+        <v>3.200419</v>
       </c>
       <c r="I22">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="J22">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>11385.75399316668</v>
+        <v>141.6770145387427</v>
       </c>
       <c r="R22">
-        <v>11385.75399316668</v>
+        <v>1275.093130848684</v>
       </c>
       <c r="S22">
-        <v>0.07818925058039285</v>
+        <v>0.0009157058177849532</v>
       </c>
       <c r="T22">
-        <v>0.07818925058039285</v>
+        <v>0.0009157058177849534</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>93.62162435069131</v>
+        <v>1.066806333333333</v>
       </c>
       <c r="H23">
-        <v>93.62162435069131</v>
+        <v>3.200419</v>
       </c>
       <c r="I23">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="J23">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>11694.65980577273</v>
+        <v>134.1052200366987</v>
       </c>
       <c r="R23">
-        <v>11694.65980577273</v>
+        <v>1206.946980330288</v>
       </c>
       <c r="S23">
-        <v>0.08031059572820563</v>
+        <v>0.0008667667834668791</v>
       </c>
       <c r="T23">
-        <v>0.08031059572820563</v>
+        <v>0.0008667667834668792</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>93.62162435069131</v>
+        <v>1.066806333333333</v>
       </c>
       <c r="H24">
-        <v>93.62162435069131</v>
+        <v>3.200419</v>
       </c>
       <c r="I24">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="J24">
-        <v>0.2989101538116334</v>
+        <v>0.003308872692655397</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>4930.778665508376</v>
+        <v>57.16639802305055</v>
       </c>
       <c r="R24">
-        <v>4930.778665508376</v>
+        <v>514.497582207455</v>
       </c>
       <c r="S24">
-        <v>0.03386107664589214</v>
+        <v>0.0003694855049137331</v>
       </c>
       <c r="T24">
-        <v>0.03386107664589214</v>
+        <v>0.0003694855049137332</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.066806333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.200419</v>
+      </c>
+      <c r="I25">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="J25">
+        <v>0.003308872692655397</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>24.53944169025955</v>
+      </c>
+      <c r="R25">
+        <v>220.854975212336</v>
+      </c>
+      <c r="S25">
+        <v>0.0001586065996246727</v>
+      </c>
+      <c r="T25">
+        <v>0.0001586065996246728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H26">
+        <v>2.315068</v>
+      </c>
+      <c r="I26">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J26">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>1.349724000156</v>
+      </c>
+      <c r="R26">
+        <v>12.147516001404</v>
+      </c>
+      <c r="S26">
+        <v>8.723716570191057E-06</v>
+      </c>
+      <c r="T26">
+        <v>8.723716570191057E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H27">
+        <v>2.315068</v>
+      </c>
+      <c r="I27">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J27">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>110.3790107947645</v>
+      </c>
+      <c r="R27">
+        <v>993.4110971528802</v>
+      </c>
+      <c r="S27">
+        <v>0.0007134163765038564</v>
+      </c>
+      <c r="T27">
+        <v>0.0007134163765038564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H28">
+        <v>2.315068</v>
+      </c>
+      <c r="I28">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J28">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>102.4840568357387</v>
+      </c>
+      <c r="R28">
+        <v>922.3565115216481</v>
+      </c>
+      <c r="S28">
+        <v>0.0006623886547879438</v>
+      </c>
+      <c r="T28">
+        <v>0.0006623886547879439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H29">
+        <v>2.315068</v>
+      </c>
+      <c r="I29">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J29">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>97.00689301617066</v>
+      </c>
+      <c r="R29">
+        <v>873.062037145536</v>
+      </c>
+      <c r="S29">
+        <v>0.0006269879174780243</v>
+      </c>
+      <c r="T29">
+        <v>0.0006269879174780243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H30">
+        <v>2.315068</v>
+      </c>
+      <c r="I30">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J30">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>41.35211631302889</v>
+      </c>
+      <c r="R30">
+        <v>372.16904681726</v>
+      </c>
+      <c r="S30">
+        <v>0.0002672725255316964</v>
+      </c>
+      <c r="T30">
+        <v>0.0002672725255316965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.7716893333333333</v>
+      </c>
+      <c r="H31">
+        <v>2.315068</v>
+      </c>
+      <c r="I31">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="J31">
+        <v>0.002393519500677988</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>17.75094954597689</v>
+      </c>
+      <c r="R31">
+        <v>159.758545913792</v>
+      </c>
+      <c r="S31">
+        <v>0.000114730309806276</v>
+      </c>
+      <c r="T31">
+        <v>0.000114730309806276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H32">
+        <v>291.260704</v>
+      </c>
+      <c r="I32">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J32">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>169.809941863968</v>
+      </c>
+      <c r="R32">
+        <v>1528.289476775713</v>
+      </c>
+      <c r="S32">
+        <v>0.001097538314092853</v>
+      </c>
+      <c r="T32">
+        <v>0.001097538314092853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H33">
+        <v>291.260704</v>
+      </c>
+      <c r="I33">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J33">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>13886.87865363207</v>
+      </c>
+      <c r="R33">
+        <v>124981.9078826887</v>
+      </c>
+      <c r="S33">
+        <v>0.08975553031947324</v>
+      </c>
+      <c r="T33">
+        <v>0.08975553031947324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H34">
+        <v>291.260704</v>
+      </c>
+      <c r="I34">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J34">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>12893.60767923588</v>
+      </c>
+      <c r="R34">
+        <v>116042.469113123</v>
+      </c>
+      <c r="S34">
+        <v>0.08333568859106923</v>
+      </c>
+      <c r="T34">
+        <v>0.08333568859106925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>93.62162435069131</v>
-      </c>
-      <c r="H25">
-        <v>93.62162435069131</v>
-      </c>
-      <c r="I25">
-        <v>0.2989101538116334</v>
-      </c>
-      <c r="J25">
-        <v>0.2989101538116334</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N25">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P25">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q25">
-        <v>2030.15300520972</v>
-      </c>
-      <c r="R25">
-        <v>2030.15300520972</v>
-      </c>
-      <c r="S25">
-        <v>0.01394164515904243</v>
-      </c>
-      <c r="T25">
-        <v>0.01394164515904243</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H35">
+        <v>291.260704</v>
+      </c>
+      <c r="I35">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J35">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>12204.52096989918</v>
+      </c>
+      <c r="R35">
+        <v>109840.6887290926</v>
+      </c>
+      <c r="S35">
+        <v>0.07888189126373103</v>
+      </c>
+      <c r="T35">
+        <v>0.07888189126373103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H36">
+        <v>291.260704</v>
+      </c>
+      <c r="I36">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J36">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>5202.545458372143</v>
+      </c>
+      <c r="R36">
+        <v>46822.90912534929</v>
+      </c>
+      <c r="S36">
+        <v>0.03362578721066503</v>
+      </c>
+      <c r="T36">
+        <v>0.03362578721066504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>97.08690133333334</v>
+      </c>
+      <c r="H37">
+        <v>291.260704</v>
+      </c>
+      <c r="I37">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="J37">
+        <v>0.301130755038383</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>2233.262289241487</v>
+      </c>
+      <c r="R37">
+        <v>20099.36060317338</v>
+      </c>
+      <c r="S37">
+        <v>0.01443431933935161</v>
+      </c>
+      <c r="T37">
+        <v>0.01443431933935161</v>
       </c>
     </row>
   </sheetData>
